--- a/Обмен.xlsx
+++ b/Обмен.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\ITP_Owen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CADEC8-232F-488C-93CC-37D271300613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B50EF39-4750-4117-ABA8-1D4CDC788807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12675" yWindow="1335" windowWidth="13935" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Сбросить моточасы 2</t>
   </si>
   <si>
-    <t>ы</t>
-  </si>
-  <si>
     <t>Нажат аварийный останов</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>rw</t>
+  </si>
+  <si>
+    <t>shutOffValveLock</t>
+  </si>
+  <si>
+    <t>Отсечной клапан блокирован</t>
   </si>
 </sst>
 </file>
@@ -288,9 +291,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -299,11 +300,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -836,7 +838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -850,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -864,7 +866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -878,7 +880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -892,7 +894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -906,7 +908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -920,7 +922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -934,7 +936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -948,7 +950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -962,7 +964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -976,63 +978,76 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
